--- a/WDW_Ride_Data_DW.xlsx
+++ b/WDW_Ride_Data_DW.xlsx
@@ -2,25 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristinamulholland/Desktop/Disney Data Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94E49B2-DC8E-E146-85B1-99615F37FA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA350F9-F008-9440-B965-65C91F4CF47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WDW_Ride_Data" sheetId="4" r:id="rId1"/>
     <sheet name="Ride Count By Park" sheetId="6" r:id="rId2"/>
     <sheet name="Ride Count by Age Interest" sheetId="8" r:id="rId3"/>
     <sheet name="Ride Count by Ranking" sheetId="9" r:id="rId4"/>
+    <sheet name="Best Ranked Rides For All" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="70" r:id="rId5"/>
+    <pivotCache cacheId="73" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="124">
   <si>
     <t>Ride_name</t>
   </si>
@@ -411,6 +412,9 @@
   <si>
     <t>(Multiple Items)</t>
   </si>
+  <si>
+    <t>Min of TL_rank</t>
+  </si>
 </sst>
 </file>
 
@@ -452,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -462,6 +466,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,7 +638,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2936,7 +2943,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -6962,6 +6969,1997 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[WDW_Ride_Data_DW.xlsx]Best Ranked Rides For All!PivotTable17</c:name>
+    <c:fmtId val="8"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Walt Disney World</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Top 10 Best Ranked Rides for All</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35749749749749749"/>
+          <c:y val="2.3785926660059464E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.39288895194407E-2"/>
+          <c:y val="0.13310208126858278"/>
+          <c:w val="0.86189898559977296"/>
+          <c:h val="0.58043576317083256"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Ranked Rides For All'!$B$4:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Best Ranked Rides For All'!$A$6:$A$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kilimanjaro Safaris</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Na'vi River Journey</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Spaceship Earth</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Toy Story Mania</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Haunted Mansion</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>It's a Small World</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Jungle Cruise</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mad Tea Party</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Peter Pan's Flight</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Pirates of the Caribbean</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AK</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>EC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HS</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MK</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Ranked Rides For All'!$B$6:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEF2-BA46-97B8-ADB1348AB1A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Ranked Rides For All'!$C$4:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Best Ranked Rides For All'!$A$6:$A$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kilimanjaro Safaris</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Na'vi River Journey</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Spaceship Earth</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Toy Story Mania</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Haunted Mansion</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>It's a Small World</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Jungle Cruise</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mad Tea Party</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Peter Pan's Flight</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Pirates of the Caribbean</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AK</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>EC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HS</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MK</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Ranked Rides For All'!$C$6:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DEF2-BA46-97B8-ADB1348AB1A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Ranked Rides For All'!$D$4:$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Best Ranked Rides For All'!$A$6:$A$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kilimanjaro Safaris</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Na'vi River Journey</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Spaceship Earth</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Toy Story Mania</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Haunted Mansion</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>It's a Small World</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Jungle Cruise</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mad Tea Party</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Peter Pan's Flight</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Pirates of the Caribbean</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AK</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>EC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HS</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MK</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Ranked Rides For All'!$D$6:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DEF2-BA46-97B8-ADB1348AB1A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Ranked Rides For All'!$E$4:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Best Ranked Rides For All'!$A$6:$A$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kilimanjaro Safaris</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Na'vi River Journey</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Spaceship Earth</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Toy Story Mania</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Haunted Mansion</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>It's a Small World</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Jungle Cruise</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mad Tea Party</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Peter Pan's Flight</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Pirates of the Caribbean</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AK</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>EC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HS</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MK</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Ranked Rides For All'!$E$6:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DEF2-BA46-97B8-ADB1348AB1A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Ranked Rides For All'!$F$4:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Best Ranked Rides For All'!$A$6:$A$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kilimanjaro Safaris</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Na'vi River Journey</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Spaceship Earth</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Toy Story Mania</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Haunted Mansion</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>It's a Small World</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Jungle Cruise</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mad Tea Party</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Peter Pan's Flight</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Pirates of the Caribbean</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AK</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>EC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HS</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MK</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Ranked Rides For All'!$F$6:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DEF2-BA46-97B8-ADB1348AB1A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Ranked Rides For All'!$G$4:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Best Ranked Rides For All'!$A$6:$A$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kilimanjaro Safaris</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Na'vi River Journey</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Spaceship Earth</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Toy Story Mania</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Haunted Mansion</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>It's a Small World</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Jungle Cruise</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mad Tea Party</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Peter Pan's Flight</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Pirates of the Caribbean</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AK</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>EC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HS</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MK</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Ranked Rides For All'!$G$6:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DEF2-BA46-97B8-ADB1348AB1A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Ranked Rides For All'!$H$4:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Best Ranked Rides For All'!$A$6:$A$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kilimanjaro Safaris</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Na'vi River Journey</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Spaceship Earth</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Toy Story Mania</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Haunted Mansion</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>It's a Small World</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Jungle Cruise</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mad Tea Party</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Peter Pan's Flight</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Pirates of the Caribbean</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AK</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>EC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HS</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MK</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Ranked Rides For All'!$H$6:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DEF2-BA46-97B8-ADB1348AB1A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Ranked Rides For All'!$I$4:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Best Ranked Rides For All'!$A$6:$A$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kilimanjaro Safaris</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Na'vi River Journey</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Spaceship Earth</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Toy Story Mania</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Haunted Mansion</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>It's a Small World</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Jungle Cruise</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mad Tea Party</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Peter Pan's Flight</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Pirates of the Caribbean</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AK</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>EC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HS</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MK</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Ranked Rides For All'!$I$6:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-DEF2-BA46-97B8-ADB1348AB1A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Ranked Rides For All'!$J$4:$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Best Ranked Rides For All'!$A$6:$A$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kilimanjaro Safaris</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Na'vi River Journey</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Spaceship Earth</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Toy Story Mania</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Haunted Mansion</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>It's a Small World</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Jungle Cruise</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mad Tea Party</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Peter Pan's Flight</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Pirates of the Caribbean</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AK</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>EC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HS</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MK</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Ranked Rides For All'!$J$6:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-DEF2-BA46-97B8-ADB1348AB1A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Best Ranked Rides For All'!$K$4:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Best Ranked Rides For All'!$A$6:$A$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kilimanjaro Safaris</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Na'vi River Journey</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Spaceship Earth</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Toy Story Mania</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Haunted Mansion</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>It's a Small World</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Jungle Cruise</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mad Tea Party</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Peter Pan's Flight</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Pirates of the Caribbean</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AK</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>EC</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HS</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MK</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Ranked Rides For All'!$K$6:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-DEF2-BA46-97B8-ADB1348AB1A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="484181583"/>
+        <c:axId val="484183231"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="484181583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0"/>
+                  <a:t>Ride Name and Park Location</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38932278735428344"/>
+              <c:y val="0.9104756404953841"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484183231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484183231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0"/>
+                  <a:t>Travel and Leisure Rating</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" baseline="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>(lower is better)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7142102732653916E-2"/>
+              <c:y val="0.27332979561895693"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484181583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7003,6 +9001,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8048,6 +10086,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8151,6 +10692,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FFDF96-A7A1-2074-D163-1761A6E70690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49BF6A5-0C35-6C09-528F-147B64933459}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9833,7 +12415,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4B8108B-95BE-FD43-9069-0A375719EE0F}" name="PivotTable13" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4B8108B-95BE-FD43-9069-0A375719EE0F}" name="PivotTable13" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:Q9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="28">
     <pivotField dataField="1" showAll="0"/>
@@ -10588,7 +13170,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A8A4A0F0-3002-A549-AEF9-70F5FDD0E229}" name="PivotTable15" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A8A4A0F0-3002-A549-AEF9-70F5FDD0E229}" name="PivotTable15" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A5:M11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="28">
     <pivotField dataField="1" showAll="0"/>
@@ -10916,7 +13498,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{188C9369-5218-5E4F-AE39-6A452B943816}" name="PivotTable16" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{188C9369-5218-5E4F-AE39-6A452B943816}" name="PivotTable16" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A5:N11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="28">
     <pivotField dataField="1" showAll="0">
@@ -11488,6 +14070,398 @@
           </reference>
           <reference field="2" count="1" selected="0">
             <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B57DA78F-908F-E547-8DC6-A8D15CEE42D3}" name="PivotTable17" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="A4:L20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="28">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="48">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="47">
+        <item x="7"/>
+        <item x="10"/>
+        <item x="37"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="40"/>
+        <item x="31"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="26"/>
+        <item x="15"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="27"/>
+        <item x="32"/>
+        <item x="11"/>
+        <item x="21"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="30"/>
+        <item x="33"/>
+        <item x="5"/>
+        <item x="20"/>
+        <item h="1" x="8"/>
+        <item h="1" x="36"/>
+        <item h="1" x="6"/>
+        <item h="1" x="39"/>
+        <item h="1" x="0"/>
+        <item h="1" x="4"/>
+        <item h="1" x="19"/>
+        <item h="1" x="42"/>
+        <item h="1" x="34"/>
+        <item h="1" x="38"/>
+        <item h="1" x="23"/>
+        <item h="1" x="16"/>
+        <item h="1" x="1"/>
+        <item h="1" x="35"/>
+        <item h="1" x="41"/>
+        <item h="1" x="9"/>
+        <item h="1" x="43"/>
+        <item h="1" x="24"/>
+        <item h="1" x="44"/>
+        <item h="1" x="12"/>
+        <item h="1" x="18"/>
+        <item h="1" x="45"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="26"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="27" hier="-1"/>
+    <pageField fld="14" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Min of TL_rank" fld="26" subtotal="min" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="26" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="26" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="26" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="26" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="26" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="26" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="26" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="26" count="1" selected="0">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="26" count="1" selected="0">
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="26" count="1" selected="0">
+            <x v="23"/>
           </reference>
         </references>
       </pivotArea>
@@ -11775,11 +14749,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="3" width="13.1640625" customWidth="1"/>
@@ -11791,7 +14765,7 @@
     <col min="27" max="27" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11877,7 +14851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -11949,15 +14923,15 @@
       </c>
       <c r="X2" s="2">
         <f ca="1">TODAY()-W2</f>
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="Y2" s="2">
         <f ca="1">X2/365.25</f>
-        <v>4.2381930184804926</v>
+        <v>4.2409308692676246</v>
       </c>
       <c r="Z2" s="3" t="str">
         <f ca="1">DATEDIF(0,X2,"y")&amp;" years " &amp;DATEDIF(0,X2,"ym")&amp;" months "&amp;DATEDIF(0,X2,"md")&amp;" days"</f>
-        <v>4 years 2 months 27 days</v>
+        <v>4 years 2 months 28 days</v>
       </c>
       <c r="AA2">
         <v>31</v>
@@ -11966,7 +14940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -12038,15 +15012,15 @@
       </c>
       <c r="X3" s="2">
         <f t="shared" ref="X3:X47" ca="1" si="0">TODAY()-W3</f>
-        <v>10074</v>
+        <v>10075</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" ref="Y3:Y47" ca="1" si="1">X3/365.25</f>
-        <v>27.581108829568787</v>
+        <v>27.583846680355922</v>
       </c>
       <c r="Z3" s="3" t="str">
         <f t="shared" ref="Z3:Z47" ca="1" si="2">DATEDIF(0,X3,"y")&amp;" years " &amp;DATEDIF(0,X3,"ym")&amp;" months "&amp;DATEDIF(0,X3,"md")&amp;" days"</f>
-        <v>27 years 6 months 31 days</v>
+        <v>27 years 7 months 1 days</v>
       </c>
       <c r="AA3">
         <v>43</v>
@@ -12055,7 +15029,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -12127,15 +15101,15 @@
       </c>
       <c r="X4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.330595482546201</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="Z4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>5 years 3 months 30 days</v>
+        <v>5 years 4 months 1 days</v>
       </c>
       <c r="AA4">
         <v>9</v>
@@ -12144,7 +15118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -12216,15 +15190,15 @@
       </c>
       <c r="X5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15342</v>
+        <v>15343</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42.004106776180699</v>
+        <v>42.006844626967833</v>
       </c>
       <c r="Z5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>42 years 0 months 1 days</v>
+        <v>42 years 0 months 2 days</v>
       </c>
       <c r="AA5">
         <v>8</v>
@@ -12233,7 +15207,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -12305,15 +15279,15 @@
       </c>
       <c r="X6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8754</v>
+        <v>8755</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.967145790554415</v>
+        <v>23.969883641341546</v>
       </c>
       <c r="Z6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>23 years 11 months 19 days</v>
+        <v>23 years 11 months 20 days</v>
       </c>
       <c r="AA6">
         <v>32</v>
@@ -12322,7 +15296,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -12394,15 +15368,15 @@
       </c>
       <c r="X7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8922</v>
+        <v>8923</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>24.427104722792606</v>
+        <v>24.429842573579741</v>
       </c>
       <c r="Z7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>24 years 5 months 4 days</v>
+        <v>24 years 5 months 5 days</v>
       </c>
       <c r="AA7">
         <v>24</v>
@@ -12411,7 +15385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -12483,15 +15457,15 @@
       </c>
       <c r="X8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18622</v>
+        <v>18623</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50.984257357973988</v>
+        <v>50.986995208761122</v>
       </c>
       <c r="Z8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>50 years 11 months 25 days</v>
+        <v>50 years 11 months 26 days</v>
       </c>
       <c r="AA8">
         <v>29</v>
@@ -12500,7 +15474,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -12572,15 +15546,15 @@
       </c>
       <c r="X9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6015</v>
+        <v>6016</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>16.468172484599588</v>
+        <v>16.470910335386723</v>
       </c>
       <c r="Z9" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>16 years 5 months 19 days</v>
+        <v>16 years 5 months 20 days</v>
       </c>
       <c r="AA9">
         <v>1</v>
@@ -12589,7 +15563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -12661,15 +15635,15 @@
       </c>
       <c r="X10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2614647501711156</v>
+        <v>6.2642026009582477</v>
       </c>
       <c r="Z10" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>6 years 3 months 5 days</v>
+        <v>6 years 3 months 6 days</v>
       </c>
       <c r="AA10">
         <v>27</v>
@@ -12678,7 +15652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -12750,15 +15724,15 @@
       </c>
       <c r="X11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5655</v>
+        <v>5656</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15.482546201232033</v>
+        <v>15.485284052019164</v>
       </c>
       <c r="Z11" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>15 years 5 months 25 days</v>
+        <v>15 years 5 months 26 days</v>
       </c>
       <c r="AA11">
         <v>47</v>
@@ -12767,7 +15741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -12839,15 +15813,15 @@
       </c>
       <c r="X12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18622</v>
+        <v>18623</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50.984257357973988</v>
+        <v>50.986995208761122</v>
       </c>
       <c r="Z12" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>50 years 11 months 25 days</v>
+        <v>50 years 11 months 26 days</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -12856,7 +15830,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -12928,15 +15902,15 @@
       </c>
       <c r="X13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18622</v>
+        <v>18623</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50.984257357973988</v>
+        <v>50.986995208761122</v>
       </c>
       <c r="Z13" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>50 years 11 months 25 days</v>
+        <v>50 years 11 months 26 days</v>
       </c>
       <c r="AA13">
         <v>16</v>
@@ -12945,7 +15919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -13017,15 +15991,15 @@
       </c>
       <c r="X14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7421</v>
+        <v>7422</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20.317590691307323</v>
+        <v>20.320328542094455</v>
       </c>
       <c r="Z14" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20 years 3 months 25 days</v>
+        <v>20 years 3 months 26 days</v>
       </c>
       <c r="AA14">
         <v>53</v>
@@ -13034,7 +16008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -13106,15 +16080,15 @@
       </c>
       <c r="X15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18622</v>
+        <v>18623</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50.984257357973988</v>
+        <v>50.986995208761122</v>
       </c>
       <c r="Z15" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>50 years 11 months 25 days</v>
+        <v>50 years 11 months 26 days</v>
       </c>
       <c r="AA15">
         <v>19</v>
@@ -13123,7 +16097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -13195,15 +16169,15 @@
       </c>
       <c r="X16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8623</v>
+        <v>8624</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.60848733744011</v>
+        <v>23.611225188227241</v>
       </c>
       <c r="Z16" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>23 years 7 months 10 days</v>
+        <v>23 years 7 months 11 days</v>
       </c>
       <c r="AA16">
         <v>21</v>
@@ -13212,7 +16186,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -13284,15 +16258,15 @@
       </c>
       <c r="X17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8922</v>
+        <v>8923</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>24.427104722792606</v>
+        <v>24.429842573579741</v>
       </c>
       <c r="Z17" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>24 years 5 months 4 days</v>
+        <v>24 years 5 months 5 days</v>
       </c>
       <c r="AA17">
         <v>11</v>
@@ -13301,7 +16275,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -13373,15 +16347,15 @@
       </c>
       <c r="X18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14604</v>
+        <v>14605</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>39.983572895277206</v>
+        <v>39.986310746064341</v>
       </c>
       <c r="Z18" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>39 years 11 months 25 days</v>
+        <v>39 years 11 months 26 days</v>
       </c>
       <c r="AA18">
         <v>42</v>
@@ -13390,7 +16364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -13462,15 +16436,15 @@
       </c>
       <c r="X19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18622</v>
+        <v>18623</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50.984257357973988</v>
+        <v>50.986995208761122</v>
       </c>
       <c r="Z19" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>50 years 11 months 25 days</v>
+        <v>50 years 11 months 26 days</v>
       </c>
       <c r="AA19">
         <v>20</v>
@@ -13479,7 +16453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -13551,15 +16525,15 @@
       </c>
       <c r="X20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18622</v>
+        <v>18623</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50.984257357973988</v>
+        <v>50.986995208761122</v>
       </c>
       <c r="Z20" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>50 years 11 months 25 days</v>
+        <v>50 years 11 months 26 days</v>
       </c>
       <c r="AA20" t="s">
         <v>35</v>
@@ -13568,7 +16542,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -13640,15 +16614,15 @@
       </c>
       <c r="X21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6934</v>
+        <v>6935</v>
       </c>
       <c r="Y21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18.984257357973991</v>
+        <v>18.986995208761122</v>
       </c>
       <c r="Z21" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>18 years 11 months 25 days</v>
+        <v>18 years 11 months 26 days</v>
       </c>
       <c r="AA21">
         <v>33</v>
@@ -13657,7 +16631,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -13729,15 +16703,15 @@
       </c>
       <c r="X22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="Y22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.330595482546201</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="Z22" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>5 years 3 months 30 days</v>
+        <v>5 years 4 months 1 days</v>
       </c>
       <c r="AA22">
         <v>25</v>
@@ -13746,7 +16720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -13818,15 +16792,15 @@
       </c>
       <c r="X23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18622</v>
+        <v>18623</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50.984257357973988</v>
+        <v>50.986995208761122</v>
       </c>
       <c r="Z23" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>50 years 11 months 25 days</v>
+        <v>50 years 11 months 26 days</v>
       </c>
       <c r="AA23">
         <v>18</v>
@@ -13835,7 +16809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -13907,15 +16881,15 @@
       </c>
       <c r="X24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17814</v>
+        <v>17815</v>
       </c>
       <c r="Y24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>48.772073921971256</v>
+        <v>48.774811772758383</v>
       </c>
       <c r="Z24" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>48 years 9 months 8 days</v>
+        <v>48 years 9 months 9 days</v>
       </c>
       <c r="AA24">
         <v>12</v>
@@ -13924,7 +16898,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -13996,15 +16970,15 @@
       </c>
       <c r="X25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7465</v>
+        <v>7466</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20.438056125941138</v>
+        <v>20.440793976728269</v>
       </c>
       <c r="Z25" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20 years 5 months 8 days</v>
+        <v>20 years 5 months 9 days</v>
       </c>
       <c r="AA25">
         <v>41</v>
@@ -14013,7 +16987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -14085,15 +17059,15 @@
       </c>
       <c r="X26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18622</v>
+        <v>18623</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50.984257357973988</v>
+        <v>50.986995208761122</v>
       </c>
       <c r="Z26" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>50 years 11 months 25 days</v>
+        <v>50 years 11 months 26 days</v>
       </c>
       <c r="AA26">
         <v>51</v>
@@ -14102,7 +17076,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -14174,15 +17148,15 @@
       </c>
       <c r="X27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8459</v>
+        <v>8460</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.159479808350444</v>
+        <v>23.162217659137578</v>
       </c>
       <c r="Z27" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>23 years 1 months 27 days</v>
+        <v>23 years 1 months 28 days</v>
       </c>
       <c r="AA27">
         <v>13</v>
@@ -14191,7 +17165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -14263,15 +17237,15 @@
       </c>
       <c r="X28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3285420944558517</v>
+        <v>8.3312799452429847</v>
       </c>
       <c r="Z28" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8 years 3 months 29 days</v>
+        <v>8 years 3 months 30 days</v>
       </c>
       <c r="AA28">
         <v>10</v>
@@ -14280,7 +17254,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -14352,15 +17326,15 @@
       </c>
       <c r="X29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2381930184804926</v>
+        <v>4.2409308692676246</v>
       </c>
       <c r="Z29" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>4 years 2 months 27 days</v>
+        <v>4 years 2 months 28 days</v>
       </c>
       <c r="AA29">
         <v>14</v>
@@ -14369,7 +17343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -14441,15 +17415,15 @@
       </c>
       <c r="X30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6352</v>
+        <v>6353</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>17.390828199863108</v>
+        <v>17.393566050650239</v>
       </c>
       <c r="Z30" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>17 years 4 months 22 days</v>
+        <v>17 years 4 months 23 days</v>
       </c>
       <c r="AA30">
         <v>4</v>
@@ -14458,7 +17432,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -14530,15 +17504,15 @@
       </c>
       <c r="X31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17420</v>
+        <v>17421</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>47.693360711841201</v>
+        <v>47.696098562628336</v>
       </c>
       <c r="Z31" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>47 years 8 months 10 days</v>
+        <v>47 years 8 months 11 days</v>
       </c>
       <c r="AA31">
         <v>5</v>
@@ -14547,7 +17521,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -14619,15 +17593,15 @@
       </c>
       <c r="X32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14604</v>
+        <v>14605</v>
       </c>
       <c r="Y32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>39.983572895277206</v>
+        <v>39.986310746064341</v>
       </c>
       <c r="Z32" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>39 years 11 months 25 days</v>
+        <v>39 years 11 months 26 days</v>
       </c>
       <c r="AA32">
         <v>22</v>
@@ -14636,7 +17610,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -14708,15 +17682,15 @@
       </c>
       <c r="X33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11027</v>
+        <v>11028</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>30.190280629705683</v>
+        <v>30.193018480492814</v>
       </c>
       <c r="Z33" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>30 years 2 months 10 days</v>
+        <v>30 years 2 months 11 days</v>
       </c>
       <c r="AA33">
         <v>7</v>
@@ -14725,7 +17699,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -14797,15 +17771,15 @@
       </c>
       <c r="X34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11972</v>
+        <v>11973</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>32.777549623545518</v>
+        <v>32.780287474332646</v>
       </c>
       <c r="Z34" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>32 years 9 months 10 days</v>
+        <v>32 years 9 months 11 days</v>
       </c>
       <c r="AA34">
         <v>15</v>
@@ -14814,7 +17788,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -14886,15 +17860,15 @@
       </c>
       <c r="X35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8594</v>
+        <v>8595</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.529089664613277</v>
+        <v>23.531827515400412</v>
       </c>
       <c r="Z35" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>23 years 6 months 12 days</v>
+        <v>23 years 6 months 13 days</v>
       </c>
       <c r="AA35">
         <v>23</v>
@@ -14903,7 +17877,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -14975,15 +17949,15 @@
       </c>
       <c r="X36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9490</v>
+        <v>9491</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>25.982203969883642</v>
+        <v>25.984941820670773</v>
       </c>
       <c r="Z36" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>25 years 11 months 24 days</v>
+        <v>25 years 11 months 25 days</v>
       </c>
       <c r="AA36">
         <v>36</v>
@@ -14992,7 +17966,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -15064,15 +18038,15 @@
       </c>
       <c r="X37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7795</v>
+        <v>7796</v>
       </c>
       <c r="Y37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>21.341546885694729</v>
+        <v>21.34428473648186</v>
       </c>
       <c r="Z37" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>21 years 4 months 4 days</v>
+        <v>21 years 4 months 5 days</v>
       </c>
       <c r="AA37">
         <v>44</v>
@@ -15081,7 +18055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -15153,15 +18127,15 @@
       </c>
       <c r="X38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8513</v>
+        <v>8514</v>
       </c>
       <c r="Y38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.307323750855577</v>
+        <v>23.310061601642712</v>
       </c>
       <c r="Z38" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>23 years 3 months 22 days</v>
+        <v>23 years 3 months 23 days</v>
       </c>
       <c r="AA38">
         <v>28</v>
@@ -15170,7 +18144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -15242,15 +18216,15 @@
       </c>
       <c r="X39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10292</v>
+        <v>10293</v>
       </c>
       <c r="Y39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>28.177960301163587</v>
+        <v>28.180698151950718</v>
       </c>
       <c r="Z39" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>28 years 2 months 5 days</v>
+        <v>28 years 2 months 6 days</v>
       </c>
       <c r="AA39">
         <v>3</v>
@@ -15259,7 +18233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>110</v>
       </c>
@@ -15331,15 +18305,15 @@
       </c>
       <c r="X40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18622</v>
+        <v>18623</v>
       </c>
       <c r="Y40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50.984257357973988</v>
+        <v>50.986995208761122</v>
       </c>
       <c r="Z40" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>50 years 11 months 25 days</v>
+        <v>50 years 11 months 26 days</v>
       </c>
       <c r="AA40">
         <v>38</v>
@@ -15348,7 +18322,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -15420,15 +18394,15 @@
       </c>
       <c r="X41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17253</v>
+        <v>17254</v>
       </c>
       <c r="Y41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>47.236139630390142</v>
+        <v>47.238877481177276</v>
       </c>
       <c r="Z41" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>47 years 2 months 27 days</v>
+        <v>47 years 2 months 28 days</v>
       </c>
       <c r="AA41">
         <v>30</v>
@@ -15437,7 +18411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>112</v>
       </c>
@@ -15509,15 +18483,15 @@
       </c>
       <c r="X42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5230</v>
+        <v>5231</v>
       </c>
       <c r="Y42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>14.318959616700889</v>
+        <v>14.321697467488022</v>
       </c>
       <c r="Z42" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>14 years 3 months 26 days</v>
+        <v>14 years 3 months 27 days</v>
       </c>
       <c r="AA42">
         <v>6</v>
@@ -15526,7 +18500,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>113</v>
       </c>
@@ -15598,15 +18572,15 @@
       </c>
       <c r="X43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7483</v>
+        <v>7484</v>
       </c>
       <c r="Y43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20.487337440109513</v>
+        <v>20.490075290896645</v>
       </c>
       <c r="Z43" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20 years 5 months 26 days</v>
+        <v>20 years 5 months 27 days</v>
       </c>
       <c r="AA43">
         <v>45</v>
@@ -15615,7 +18589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -15687,15 +18661,15 @@
       </c>
       <c r="X44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="Y44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.801505817932922</v>
+        <v>9.8042436687200549</v>
       </c>
       <c r="Z44" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>9 years 9 months 19 days</v>
+        <v>9 years 9 months 20 days</v>
       </c>
       <c r="AA44">
         <v>34</v>
@@ -15704,7 +18678,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -15776,15 +18750,15 @@
       </c>
       <c r="X45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18622</v>
+        <v>18623</v>
       </c>
       <c r="Y45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50.984257357973988</v>
+        <v>50.986995208761122</v>
       </c>
       <c r="Z45" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>50 years 11 months 25 days</v>
+        <v>50 years 11 months 26 days</v>
       </c>
       <c r="AA45">
         <v>48</v>
@@ -15793,7 +18767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -15865,15 +18839,15 @@
       </c>
       <c r="X46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17420</v>
+        <v>17421</v>
       </c>
       <c r="Y46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>47.693360711841201</v>
+        <v>47.696098562628336</v>
       </c>
       <c r="Z46" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>47 years 8 months 10 days</v>
+        <v>47 years 8 months 11 days</v>
       </c>
       <c r="AA46">
         <v>52</v>
@@ -15882,7 +18856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -15954,15 +18928,15 @@
       </c>
       <c r="X47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8922</v>
+        <v>8923</v>
       </c>
       <c r="Y47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>24.427104722792606</v>
+        <v>24.429842573579741</v>
       </c>
       <c r="Z47" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>24 years 5 months 4 days</v>
+        <v>24 years 5 months 5 days</v>
       </c>
       <c r="AA47" t="s">
         <v>35</v>
@@ -16254,8 +19228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74247645-5904-1C4A-B555-D8D9628685D0}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -16501,8 +19475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A79595D-ABB3-754C-98B7-B1A9D9B6090B}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -16771,4 +19745,502 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB82AEE-DAE4-474F-A40D-AFA8B603410B}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="6" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6">
+        <v>25</v>
+      </c>
+      <c r="L6" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
+        <v>25</v>
+      </c>
+      <c r="L8" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
+        <v>22</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6">
+        <v>22</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6">
+        <v>16</v>
+      </c>
+      <c r="G13" s="6">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6">
+        <v>19</v>
+      </c>
+      <c r="I13" s="6">
+        <v>20</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>16</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
+        <v>19</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6">
+        <v>20</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
+        <v>18</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>12</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6">
+        <v>16</v>
+      </c>
+      <c r="G20" s="6">
+        <v>18</v>
+      </c>
+      <c r="H20" s="6">
+        <v>19</v>
+      </c>
+      <c r="I20" s="6">
+        <v>20</v>
+      </c>
+      <c r="J20" s="6">
+        <v>22</v>
+      </c>
+      <c r="K20" s="6">
+        <v>25</v>
+      </c>
+      <c r="L20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>